--- a/data/timestamps.xlsx
+++ b/data/timestamps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmo/Documents/thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFA83CC-3EE8-BC46-A9F7-3EDAB74E27DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F71C8F-E95E-4D41-8B70-DF204F7A501A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{BF4672B2-F65A-AF46-9E75-DFF07DADA656}"/>
   </bookViews>
@@ -383,6 +383,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DF3BAA-FA95-5B48-A98A-2803FB683FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="3314700"/>
+          <a:ext cx="5384800" cy="16078200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,7 +734,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1712,5 +1761,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/timestamps.xlsx
+++ b/data/timestamps.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmo/Documents/thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F71C8F-E95E-4D41-8B70-DF204F7A501A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1852A045-AEF1-424D-9C2C-FFA6896D8E2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{BF4672B2-F65A-AF46-9E75-DFF07DADA656}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -320,6 +320,45 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -327,45 +366,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -389,16 +389,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -421,7 +421,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10248900" y="3314700"/>
+          <a:off x="5854700" y="0"/>
           <a:ext cx="5384800" cy="16078200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -734,7 +734,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -765,10 +765,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="28">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -783,8 +783,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
@@ -792,13 +792,13 @@
         <v>9.6</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="C3:E66" si="0">D3+0.4</f>
+        <f t="shared" ref="E3:E65" si="0">D3+0.4</f>
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
@@ -811,8 +811,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
@@ -825,70 +825,70 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
-        <v>10</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="B6" s="25">
+        <v>10</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16">
         <v>20</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="23">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="18">
         <v>24.6</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="23">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="18">
         <v>25</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="18">
         <f t="shared" si="0"/>
         <v>25.4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="26">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="20">
         <v>29.6</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="20">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="28">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -903,8 +903,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
@@ -917,8 +917,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
@@ -931,8 +931,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
@@ -945,70 +945,70 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="25">
         <v>2</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="28">
+      <c r="C14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="22">
         <v>34</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="22">
         <f t="shared" si="0"/>
         <v>34.4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="18">
         <v>34.6</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="18">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="23">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="18">
         <v>35</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="18">
         <f t="shared" si="0"/>
         <v>35.4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="30">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24">
         <v>35.6</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="24">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="28">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1023,8 +1023,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
@@ -1037,8 +1037,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
@@ -1051,8 +1051,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1065,70 +1065,70 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="25">
         <v>2</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="28">
+      <c r="C22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="22">
         <v>38</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="22">
         <f t="shared" si="0"/>
         <v>38.4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="23">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="18">
         <v>38.6</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="18">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="23">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="18">
         <v>39</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="18">
         <f t="shared" si="0"/>
         <v>39.4</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="30">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="24">
         <v>39.6</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="24">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="28">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1143,8 +1143,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1157,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="4" t="s">
         <v>10</v>
       </c>
@@ -1171,8 +1171,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1185,70 +1185,70 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="25">
         <v>2</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="20">
+      <c r="C30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="16">
         <v>42</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="16">
         <f t="shared" si="0"/>
         <v>42.4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="23">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="18">
         <v>42.6</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="18">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="23">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="18">
         <v>43</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="18">
         <f t="shared" si="0"/>
         <v>43.4</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="26">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="20">
         <v>43.6</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="20">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="28">
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1263,8 +1263,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="4" t="s">
         <v>11</v>
       </c>
@@ -1277,8 +1277,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="4" t="s">
         <v>10</v>
       </c>
@@ -1291,8 +1291,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1305,70 +1305,70 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="25">
         <v>2</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="20">
+      <c r="C38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="16">
         <v>46</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="16">
         <f t="shared" si="0"/>
         <v>46.4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="23">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="18">
         <v>46.6</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="18">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="23">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="18">
         <v>47</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="18">
         <f t="shared" si="0"/>
         <v>47.4</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="26">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="20">
         <v>47.6</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="20">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="28">
         <v>2</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -1383,8 +1383,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="4" t="s">
         <v>11</v>
       </c>
@@ -1397,8 +1397,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="4" t="s">
         <v>10</v>
       </c>
@@ -1411,8 +1411,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="13" t="s">
         <v>11</v>
       </c>
@@ -1425,70 +1425,70 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="25">
         <v>2</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="20">
+      <c r="C46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="16">
         <v>50</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="16">
         <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="23">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="18">
         <v>50.6</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="18">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="23">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="18">
         <v>51</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="18">
         <f t="shared" si="0"/>
         <v>51.4</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="26">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="20">
         <v>51.6</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="20">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="28">
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1503,8 +1503,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="4" t="s">
         <v>11</v>
       </c>
@@ -1517,8 +1517,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="4" t="s">
         <v>10</v>
       </c>
@@ -1531,8 +1531,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="5" t="s">
         <v>11</v>
       </c>
@@ -1545,70 +1545,70 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="25">
         <v>2</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="20">
+      <c r="C54" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="16">
         <v>54</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="16">
         <f t="shared" si="0"/>
         <v>54.4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="23">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="18">
         <v>54.6</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="18">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="23">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="18">
         <v>55</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="18">
         <f t="shared" si="0"/>
         <v>55.4</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="26">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="20">
         <v>55.6</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="20">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="28">
         <v>2</v>
       </c>
       <c r="C58" s="10" t="s">
@@ -1623,8 +1623,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="4" t="s">
         <v>11</v>
       </c>
@@ -1637,8 +1637,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="4" t="s">
         <v>10</v>
       </c>
@@ -1651,8 +1651,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="13" t="s">
         <v>11</v>
       </c>
@@ -1665,84 +1665,73 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="25">
         <v>2</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="20">
+      <c r="C62" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="16">
         <v>58</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="16">
         <f t="shared" si="0"/>
         <v>58.4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="23">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="18">
         <v>58.6</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="18">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="23">
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="18">
         <v>59</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="18">
         <f t="shared" si="0"/>
         <v>59.4</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="26">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="20">
         <v>59.6</v>
       </c>
-      <c r="E65" s="26">
+      <c r="E65" s="20">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
@@ -1752,12 +1741,23 @@
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
